--- a/medicine/Enfance/Plaque_d'Or_de_Bratislava/Plaque_d'Or_de_Bratislava.xlsx
+++ b/medicine/Enfance/Plaque_d'Or_de_Bratislava/Plaque_d'Or_de_Bratislava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plaque_d%27Or_de_Bratislava</t>
+          <t>Plaque_d'Or_de_Bratislava</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Plaque d'Or de Bratislave (ou Plaque(tte) d'Or BIB) (Golden Apple BIB en anglais) est un prix décerné à des illustrateurs lors de la Biennale d'illustration de Bratislava (BIB), biennale internationale se déroulant les années impaires à Bratislava en Slovaquie.
 Durant la BIB, et depuis sa création en 1967, un jury international décerne trois prix aux meilleurs illustrateurs, pour leurs ouvrages jeunesse : Grand Prix BIB, Golden Apple BIB (Pomme d'Or de Bratislava) et Plaque BIB (Plaque d'Or ou Plaquette d'Or, selon les traductions françaises).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plaque_d%27Or_de_Bratislava</t>
+          <t>Plaque_d'Or_de_Bratislava</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1967, après 56 années et 28 éditions jusqu'en 2023, six illustrateurs français ont reçu la Plaque d'Or, dont Mireille Vautier qui a été récompensée par deux fois successives, en 1993 et 1995.
 De nombreux illustrateurs suisses ont été récompensés, et, par trois fois, Étienne Delessert, en 1969, 1979 et 1985.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plaque_d%27Or_de_Bratislava</t>
+          <t>Plaque_d'Or_de_Bratislava</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Quelques lauréats, de 1967 à 2011
-1967 :
+          <t>Quelques lauréats, de 1967 à 2011</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1967 :
  Paul Nussbaumer pour Der Knabe des Tell
  Emanuele Luzzati pour  La gazza ladra
 1969 :
@@ -588,17 +607,51 @@
  Roberto Innocenti pour Casse-Noisette (texte de Ernst Theodor Amadeus Hoffmann)
 2003 :
  Carll Cneut pour Mijnheer Ferdinand (Monsieur Ferdinand) (texte de Agnes Guldemont) (éd. De Eenhoorn) et pour Het ongelooflijke liefdesverhaal van Heer Morf (L’Étonnante Histoire d'amour de Lucien le chien) (éd. De Eenhoorn)
- Hafez Mir Aftabi[1] pour  Bayad be fekre fereshteh bood (texte de Mohammad Reza Yousefi) et pour Elyas (texte de Mostafa Rahmandoust)
+ Hafez Mir Aftabi pour  Bayad be fekre fereshteh bood (texte de Mohammad Reza Yousefi) et pour Elyas (texte de Mostafa Rahmandoust)
 2005 :
  Carll Cneut pour Dulle Griet (Margot la folle) (texte de Geert De Kockere) (éd. De Eenhoorn)
  Alain Gauthier pour Ma peau d'âne (texte Anne Ikhlef) (Seuil Jeunesse) et pour Est-elle Estelle (texte François David) (Motus)
  Pierre Pratt pour Le jour où Zoé zozota  (Les 400 Coups)
 2009 :
  Anne Bertier pour Construis-moi une lettre (éditions MeMo) et pour Dessine-moi une lettre (MeMo)
- Fabian Negrin pour Mille giorni e una notte et pour L´amore t´attende (L'Amour t'attend[2], éd. Notari)
-2011 :  Valérie Losa[3] pour Sapore Italiano: Piccole storie di pranzi domenicali
-Lauréats, depuis 2013
-2013 :
+ Fabian Negrin pour Mille giorni e una notte et pour L´amore t´attende (L'Amour t'attend, éd. Notari)
+2011 :  Valérie Losa pour Sapore Italiano: Piccole storie di pranzi domenicali</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plaque_d'Or_de_Bratislava</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plaque_d%27Or_de_Bratislava</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lauréats, depuis 2013</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2013 :
  Stella Dreis pour Grimms Märchenreise (texte des freères Grimm)
  Renate Habinger pour Hier gibt es Löwen (texte de Michael Stavarič) et pour Schlaf jetzt, kleines Kamel (texte de Hubert Gaisbauer)
  Daniela Olejníková pour In watermelon sugar (texte de Richard Brautigan) et pour Thirteen (texte de Jana Bodnárová)
@@ -623,9 +676,9 @@
  André Letria
  Anat Warshavski
 2021 :
- Ghazal Fatollahi pour You Are an Explorer[4],[5]
- Mamiko Shiotani pour The Story of Egg[6]
- Mohammad Barangi Fashtami pour Phoenix[5]
+ Ghazal Fatollahi pour You Are an Explorer,
+ Mamiko Shiotani pour The Story of Egg
+ Mohammad Barangi Fashtami pour Phoenix
  Dale Blankenaar pour Quill Soup
  Armando Fonseca pour The Howling
 2023 :
